--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Harms/Hermann_Harms.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Harms/Hermann_Harms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann August Theodor Harms est un botaniste allemand, né en 1870 et mort en 1942.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il enseigne la botanique à l’Académie des sciences naturelles de la Prusse (Preußische Akademie der Wissenschaften). Il est l’auteur d’importants travaux de taxinomie comme sur le genre Nepenthes auquel il ajoute trois sous-genres Anurosperma, Eunepenthes et Mesonepenthes. Il s’intéresse également au genre Passiflora.
 </t>
@@ -542,7 +556,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Karl Wilhelm von Dalla Torre &amp; Hermann Harms: Genera siphonogamarum ad systema Englerianum conscripta. Leipzig: G. Engelmann, 1900-1907
 Alfred Cogniaux &amp; Hermann Harms: Cucurbitaceae-Cucurbiteae-Cucumerinae. Leipzig: Engelmann, 1924 (Nachdruck Weinheim 1966)</t>
